--- a/Shading Trees/my_graphs/CO2 Change by Activities.xlsx
+++ b/Shading Trees/my_graphs/CO2 Change by Activities.xlsx
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.0002508286677552762</v>
+        <v>-5.553054260865053e-08</v>
       </c>
       <c r="D2">
-        <v>-0.04943534414320538</v>
+        <v>-1.094440884230607e-05</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.0002508286677552762</v>
+        <v>-5.553054260865053e-08</v>
       </c>
       <c r="G2">
-        <v>-0.00125414333877627</v>
+        <v>-2.776527132652973e-07</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,19 +476,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001997630190044841</v>
+        <v>2.848439828451177e-08</v>
       </c>
       <c r="D3">
-        <v>0.0007990520760179365</v>
+        <v>1.139375931380471e-07</v>
       </c>
       <c r="E3">
-        <v>0.0002442446049741864</v>
+        <v>3.482706989466067e-08</v>
       </c>
       <c r="F3">
-        <v>0.0003702793582491815</v>
+        <v>5.279848469541548e-08</v>
       </c>
       <c r="G3">
-        <v>0.0009988150950226427</v>
+        <v>1.424219915335811e-07</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -499,19 +499,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.346637127955068E-05</v>
+        <v>1.976225101098239e-09</v>
       </c>
       <c r="D4">
-        <v>5.386548511820272E-05</v>
+        <v>7.904900404392956e-09</v>
       </c>
       <c r="E4">
-        <v>0.06159158292604872</v>
+        <v>9.038725401921965e-06</v>
       </c>
       <c r="F4">
-        <v>-336.0604377474439</v>
+        <v>-0.04934920092854345</v>
       </c>
       <c r="G4">
-        <v>6.733185639775513E-05</v>
+        <v>9.88112550809328e-09</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -522,19 +522,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-0.5773453236902242</v>
+        <v>-0.0001235393247043248</v>
       </c>
       <c r="D5">
-        <v>-0.000969714804855748</v>
+        <v>-2.074978473487477e-07</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.000242428701213937</v>
+        <v>-5.187446183718691e-08</v>
       </c>
       <c r="G5">
-        <v>-0.001212143506069907</v>
+        <v>-2.593723094079792e-07</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -545,19 +545,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.0002422908440571497</v>
+        <v>-5.457296359256958e-08</v>
       </c>
       <c r="D6">
-        <v>-0.04775264074042695</v>
+        <v>-1.075568139796701e-05</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-0.0002422908440571497</v>
+        <v>-5.457296359256958e-08</v>
       </c>
       <c r="G6">
-        <v>-0.00121145422028579</v>
+        <v>-2.728648179628479e-07</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -568,19 +568,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-0.000333149023626661</v>
+        <v>-7.270126274605548e-08</v>
       </c>
       <c r="D7">
-        <v>-0.001332596094506644</v>
+        <v>-2.908050509842219e-07</v>
       </c>
       <c r="E7">
-        <v>-1.52373458962893</v>
+        <v>-0.000332516144226247</v>
       </c>
       <c r="F7">
-        <v>-0.2464074575672015</v>
+        <v>-5.37721321478557e-05</v>
       </c>
       <c r="G7">
-        <v>-0.001665745118133277</v>
+        <v>-3.635063137163996e-07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2697415945397097</v>
+        <v>-5.797333824375528e-05</v>
       </c>
       <c r="C8">
-        <v>-0.001491280387102556</v>
+        <v>-3.190793664842317e-07</v>
       </c>
       <c r="D8">
-        <v>-0.1446810214474681</v>
+        <v>-3.109940143986023e-05</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.001491280387102556</v>
+        <v>-3.190793664842317e-07</v>
       </c>
       <c r="G8">
-        <v>-0.007456401935513668</v>
+        <v>-1.59539683153298e-06</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-0.0001159149940508364</v>
+        <v>-2.310664770632798e-08</v>
       </c>
       <c r="D9">
-        <v>-0.09987982159577768</v>
+        <v>-1.991017529689998e-05</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.0001159149940508364</v>
+        <v>-2.310664770632798e-08</v>
       </c>
       <c r="G9">
-        <v>-0.0005795749702537378</v>
+        <v>-1.155332380875507e-07</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.002136425495347538</v>
+        <v>-5.504249038779108e-07</v>
       </c>
       <c r="D10">
-        <v>-0.03249327234885868</v>
+        <v>-7.422426165248908e-06</v>
       </c>
       <c r="E10">
-        <v>-0.002322081331044501</v>
+        <v>-1.333445055706761e-06</v>
       </c>
       <c r="F10">
-        <v>-0.004780232139125928</v>
+        <v>-1.702503624301244e-06</v>
       </c>
       <c r="G10">
-        <v>-0.01068212747674124</v>
+        <v>-2.75212451583684e-06</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.0005349189679844102</v>
+        <v>-9.195836803144175e-08</v>
       </c>
       <c r="D11">
-        <v>-0.05063752430203294</v>
+        <v>-1.065187200310902e-05</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.03577363158910885</v>
+        <v>-5.909425453864969e-06</v>
       </c>
       <c r="G11">
-        <v>-0.3385285223494066</v>
+        <v>-7.067260685289511e-05</v>
       </c>
     </row>
   </sheetData>
